--- a/public/files/Table/excel/工会活动.xlsx
+++ b/public/files/Table/excel/工会活动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -391,16 +391,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,14 +414,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +429,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,8 +443,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +468,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,14 +497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,30 +505,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,28 +541,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -551,187 +551,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,50 +760,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,6 +790,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -834,11 +821,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,10 +850,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,133 +862,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,8 +1317,8 @@
   <sheetPr/>
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M4" sqref="$A4:$XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1415,7 +1415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1441,19 +1441,10 @@
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>
@@ -1491,14 +1482,8 @@
       <c r="AA2" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1527,19 +1512,10 @@
         <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -1577,14 +1553,8 @@
       <c r="AA3" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1610,19 +1580,10 @@
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
         <v>29</v>
@@ -1660,14 +1621,8 @@
       <c r="AA4" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1696,19 +1651,10 @@
         <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -1746,14 +1692,8 @@
       <c r="AA5" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1779,19 +1719,10 @@
         <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
@@ -1829,14 +1760,8 @@
       <c r="AA6" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1862,19 +1787,10 @@
         <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s">
         <v>29</v>
@@ -1912,14 +1828,8 @@
       <c r="AA7" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1945,19 +1855,10 @@
         <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
         <v>29</v>
@@ -1995,14 +1896,8 @@
       <c r="AA8" t="s">
         <v>29</v>
       </c>
-      <c r="AB8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2028,19 +1923,10 @@
         <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s">
         <v>29</v>
@@ -2078,14 +1964,8 @@
       <c r="AA9" t="s">
         <v>29</v>
       </c>
-      <c r="AB9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2111,19 +1991,10 @@
         <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s">
         <v>29</v>
@@ -2161,14 +2032,8 @@
       <c r="AA10" t="s">
         <v>29</v>
       </c>
-      <c r="AB10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2194,19 +2059,10 @@
         <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s">
         <v>29</v>
@@ -2244,14 +2100,8 @@
       <c r="AA11" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2277,19 +2127,10 @@
         <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s">
         <v>29</v>
@@ -2327,14 +2168,8 @@
       <c r="AA12" t="s">
         <v>29</v>
       </c>
-      <c r="AB12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2360,19 +2195,10 @@
         <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s">
         <v>29</v>
@@ -2410,14 +2236,8 @@
       <c r="AA13" t="s">
         <v>29</v>
       </c>
-      <c r="AB13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2443,19 +2263,10 @@
         <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="P14" t="s">
         <v>29</v>
@@ -2493,14 +2304,8 @@
       <c r="AA14" t="s">
         <v>29</v>
       </c>
-      <c r="AB14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2526,19 +2331,10 @@
         <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="P15" t="s">
         <v>29</v>
@@ -2575,12 +2371,6 @@
       </c>
       <c r="AA15" t="s">
         <v>29</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
